--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/vf3.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/vf3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,32 +478,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág 41</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Os Planos de Mobilização Marítima, Terrestre e Aeroespacial contêm ações estratégicas para atender carências não supridas pela logística das Forças, incluindo medidas de Desmobilização.</t>
+          <t>As Operações Conjuntas caracterizam-se pelo emprego coordenado de elementos de mais de uma força singular, com propósitos interdependentes ou complementares.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Os Planos de Mobilização das Forças Singulares tratam exclusivamente das ações logísticas de rotina, sendo vedada a inclusão de medidas de Desmobilização.</t>
+          <t>As Operações Conjuntas caracterizam-se pelo emprego isolado e independente de cada força singular, sem necessidade de propósitos interdependentes ou comando comum.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Conforme o **item 3.1.1**, os P Mob contêm ações para necessidades não atendidas pela Logística e, se for o caso, as medidas de Desmobilização.</t>
+          <t>Conforme o **item 3.1.2**, as Operações Conjuntas caracterizam-se pelo emprego coordenado de elementos de mais de uma força singular.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -512,32 +512,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág 41</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>O título do Plano de Mobilização será composto pelo nome do plano, a letra da Força e o código do PEECFA ao qual se refere.</t>
+          <t>O Comando de Operações Aeroespaciais (COMAE) e o Comando de Defesa Cibernética (ComDCiber) são exemplos de Comandos Operacionais Conjuntos permanentes.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>O título do Plano de Mobilização deve conter apenas o nome da Força Singular e o ano de sua aprovação, sem códigos adicionais.</t>
+          <t>Todos os Comandos Operacionais Conjuntos, incluindo o COMAE e o ComDCiber, têm caráter temporário e são desmobilizados após a crise.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Segundo o **item 3.3.1.1**, o título compõe-se pelo nome do plano mais seu código (letra da Força + código do PEECFA).</t>
+          <t>Segundo o **item 3.1.4**, o COMAE e o ComDCiber são Comandos Operacionais Conjuntos permanentes, sendo os demais, a princípio, temporários.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -546,32 +546,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág 41</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Após a conclusão e assinatura, os Planos de Mobilização das Forças Singulares serão enviados ao EMCFA para as providências cabíveis.</t>
+          <t>Os Comandos Operacionais serão geralmente conjuntos, cabendo a eles a execução da campanha militar segundo os documentos do Planejamento Estratégico Militar.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Os Planos de Mobilização das Forças Singulares, por conterem dados sensíveis, devem permanecer arquivados na própria Força, sendo proibido seu envio ao EMCFA.</t>
+          <t>Os Comandos Operacionais devem ser exclusivamente singulares, sendo vedada a estrutura conjunta para a execução de campanhas militares.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>De acordo com o **item 3.1.2**, após conclusão e assinatura, os P Mob Mil serão enviados ao EMCFA.</t>
+          <t>De acordo com o **item 3.1.1**, os Comandos Operacionais serão geralmente conjuntos, podendo, em casos excepcionais, serem singulares.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -580,32 +580,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 26</t>
+          <t>Pág 42</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Na fase de Preparo, deve-se propor a colocação de encomendas educativas na Base Industrial de Defesa, priorizando as Empresas Estratégicas de Defesa e as Empresas de Defesa.</t>
+          <t>A aprovação da delimitação das áreas de responsabilidade (TO, A Op e ZD) é atribuição do Comandante Supremo, assessorado pelo Ministro da Defesa.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>As encomendas educativas na fase de Preparo devem ser destinadas exclusivamente a empresas estatais estrangeiras, vedada a participação da Base Industrial de Defesa nacional.</t>
+          <t>A delimitação das áreas de responsabilidade é atribuição exclusiva dos Comandantes das Forças Singulares, sem interferência do Comandante Supremo.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Conforme o **item 3.3.5.1, alínea "c"**, deve-se propor a colocação de encomendas educativas na BID, prioritariamente nas EED e nas ED.</t>
+          <t>Conforme o **item 3.3.2**, a aprovação da delimitação das áreas de responsabilidade é atribuição do Comandante Supremo, assessorado pelo Min Def.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -614,32 +614,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 26</t>
+          <t>Pág 42</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Deve-se criar e manter um banco de talentos para cadastrar pessoas, reservistas ou não, com qualificações específicas de interesse da Mobilização.</t>
+          <t>O Teatro de Operações (TO) é a parte do teatro de guerra necessária à condução das operações militares de grande vulto e ao apoio logístico.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>O banco de talentos para a Mobilização deve restringir-se estritamente aos militares da ativa, sendo vedado o cadastro de civis ou reservistas.</t>
+          <t>O Teatro de Operações (TO) é definido como o espaço geográfico onde ocorrem apenas pequenas escaramuças que não justificam grande apoio logístico.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nos termos do **item 3.3.5.1, alínea "f"**, cria-se um banco de talentos para cadastramento de pessoas reservistas ou não com qualificações específicas.</t>
+          <t>Segundo o **item 3.3.3.1**, o TO é a parte necessária à condução de operações militares de grande vulto e consequente apoio logístico.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -648,32 +648,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 26</t>
+          <t>Pág 42</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A elaboração das Listas de Carências deve seguir as orientações do Anexo V e do Manual MD41-M-08.</t>
+          <t>A Zona de Defesa (ZD) é parte do território nacional pertencente à Zona do Interior onde um Comando planejará ações de defesa territorial.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A elaboração das Listas de Carências é livre, não havendo necessidade de seguir modelos ou manuais específicos do Ministério da Defesa.</t>
+          <t>A Zona de Defesa (ZD) é uma área localizada obrigatoriamente em território inimigo, destinada à ofensiva estratégica.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Segundo o **item 3.3.4.2**, deverão ser seguidas as orientações do Anexo V e do Manual MD41-M-08.</t>
+          <t>O texto do **item 3.3.5.1** define a ZD como parte do território nacional (Zona do Interior) para ações de defesa territorial.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -682,32 +682,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág 27</t>
+          <t>Pág 43</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Na fase de Execução, devem ser desenvolvidas campanhas psicossociais visando obter apoio no País e no exterior aos objetivos dos planejamentos de emprego das Forças.</t>
+          <t>Entende-se por Estado Final Desejado (EFD) a situação política ou militar a ser alcançada ao final das operações, indicando se o efeito desejado foi obtido.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>As campanhas psicossociais na fase de Execução devem ser evitadas para não alarmar a população e manter o sigilo absoluto das operações.</t>
+          <t>O Estado Final Desejado (EFD) refere-se apenas ao cronograma logístico de desmobilização, sem relação com a situação política ou militar final.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Conforme o **item 3.3.6, alínea "b"**, desenvolvem-se campanhas psicossociais visando obter o apoio no País e no exterior.</t>
+          <t>Conforme o **item 3.4.3**, o EFD é a situação política ou militar a ser alcançada ao final das operações.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -716,32 +716,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág 27</t>
+          <t>Pág 43</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A partir da decretação da Mobilização Nacional, ações formuladas e não solucionadas na fase do Preparo devem ser impulsionadas.</t>
+          <t>As atividades de assuntos civis devem ser planejadas para reduzir os pontos de fricção entre a população civil e a força militar, minimizando incertezas.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Com a decretação da Mobilização Nacional, as ações não solucionadas na fase de Preparo devem ser imediatamente descartadas e substituídas.</t>
+          <t>As atividades de assuntos civis devem ser evitadas, pois a interação com a população e o poder público atrapalha a condução das operações militares.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>De acordo com o **item 3.3.6, alínea "a"**, deve-se impulsionar as ações formuladas e não solucionadas na fase do Preparo.</t>
+          <t>Segundo o **item 3.4.7**, as atividades de assuntos civis visam reduzir os pontos de fricção entre a população civil e a força militar.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -750,32 +750,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág 27</t>
+          <t>Pág 43</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Devem ser cadastradas estruturas físicas em locais de interesse logístico, como hospitais, depósitos de combustíveis e de geração de energia.</t>
+          <t>A dissimulação, visando iludir forças oponentes, pode ser obtida por guerra eletrônica, desinformação, operações psicológicas e defesa cibernética.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>O cadastramento de estruturas físicas deve limitar-se a instalações puramente militares, excluindo-se hospitais civis ou depósitos de combustíveis.</t>
+          <t>A dissimulação é proibida nas operações conjuntas, devendo todas as intenções e manobras serem transparentes para o oponente.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Segundo o **item 3.3.5.1, alínea "k"**, cadastram-se estruturas físicas em locais de interesse logístico que possam prestar apoios diversos.</t>
+          <t>De acordo com o **item 3.4.10**, a dissimulação é adotada para iludir forças oponentes, usando meios como guerra eletrônica e desinformação.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -784,32 +784,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 28</t>
+          <t>Pág 44</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Acompanhar a evolução das carências incluídas no Plano de Mobilização e informar ao MD quais necessitam de medidas de desmobilização é uma atividade do Preparo da Desmobilização.</t>
+          <t>Algumas ações, como Inteligência e Operações Especiais, podem ser necessárias antes da ativação do Comando Operacional, sendo controladas pelo EMCFA.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Durante o Preparo da Desmobilização, as carências incluídas no Plano de Mobilização devem ser ignoradas, focando-se apenas em novos recursos.</t>
+          <t>Ações prévias à ativação do Comando Operacional, como Inteligência, são proibidas e só podem ocorrer após a instalação formal do comando no teatro.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Conforme o **item 3.3.7, alínea "a"**, deve-se acompanhar a evolução das carências e informar ao MD quais necessitam de medidas de desmobilização.</t>
+          <t>Conforme o **item 3.4.13**, algumas ações podem ser necessárias antes da ativação, autorizadas pelo CS e controladas pelo EMCFA.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -818,32 +818,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 28</t>
+          <t>Pág 44</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>As atividades da Execução da Desmobilização são postas em prática com a proximidade do fim dos motivos da Mobilização, de forma ordenada e gradativa.</t>
+          <t>A concentração estratégica das forças deve ser estabelecida de modo a não revelar a direção do esforço principal, contribuindo para a dissimulação.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A Execução da Desmobilização deve ocorrer de forma súbita e imediata, assim que decretado o fim da guerra, sem necessidade de gradação.</t>
+          <t>A concentração estratégica das forças deve sempre expor claramente a direção do esforço principal para intimidar o inimigo, ignorando a dissimulação.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nos termos do **item 3.3.8**, com a proximidade do fim dos motivos, as atividades serão postas em prática de forma ordenada e gradativa.</t>
+          <t>Segundo o **item 3.4.11**, a concentração estratégica pode contribuir para a dissimulação, não revelando a direção do esforço principal.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -852,240 +852,36 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 28</t>
+          <t>Pág 44</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Na fase de Preparo da Desmobilização, deve-se propor legislações específicas, inclusive a minuta de texto do decreto de Desmobilização.</t>
+          <t>Meios sob "Comando Operacional" são efetivamente adjudicados, enquanto meios sob "Controle Operacional" são para missões ou tarefas específicas.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A proposta de minuta de decreto de Desmobilização deve ser feita apenas após o término definitivo da fase de Execução da Desmobilização.</t>
+          <t>Não há distinção entre "Comando Operacional" e "Controle Operacional", significando ambos a posse administrativa total dos meios.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>De acordo com o **item 3.3.7, alínea "b"**, propõem-se legislações e normas, inclusive a proposta de minuta de texto do decreto de Desmobilização.</t>
+          <t>De acordo com o **item 3.4.14**, meios sob Comando Operacional são efetivamente adjudicados e sob Controle Operacional são para missões específicas.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MD-41-M-03</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Pág 29</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>As demandas que podem ser atendidas em até 3 anos não serão consideradas carências de mobilização e comporão um planejamento logístico independente.</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Demandas atendíveis em até 3 anos devem ser obrigatoriamente classificadas como carências de mobilização e incluídas no P Mob.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Segundo o **item 3.3.9.3**, demandas atendíveis em até 3 anos não serão consideradas carências e comporão um planejamento logístico independente.</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MD-41-M-03</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Pág 29</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Na Execução da Desmobilização, pode-se propor o cancelamento oportuno dos contratos de produção de artigos destinados à mobilização.</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Uma vez assinados, os contratos de produção para mobilização são irrevogáveis e não podem ser cancelados mesmo na fase de Desmobilização.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Conforme o **item 3.3.8, alínea "h"**, propõe-se o cancelamento oportuno dos contratos de produção de artigos destinados à mobilização.</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>MD-41-M-03</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Pág 29</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Os órgãos de mobilização das Forças Singulares devem ligar-se com a Célula de Coordenação de Mobilização (CeCM) do MD para coordenação.</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Os órgãos de mobilização das Forças Singulares devem atuar isoladamente, sendo vedada a ligação direta com a Célula de Coordenação de Mobilização do MD.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Nos termos do **item 3.3.9.2**, os órgãos deverão ligar-se com a CeCM do CCLM do MD para fins de coordenação.</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MD-41-M-03</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Pág 30</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>O Plano de Mobilização deverá ser assinado pelo Chefe do Estado-Maior da Força Singular e conter a assinatura, em anuência, do Comandante da Força.</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>O Plano de Mobilização deve ser assinado exclusivamente pelo Ministro da Defesa, dispensando a assinatura do Comandante da Força Singular.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>De acordo com o **item 3.3.12**, o plano será assinado pelo Chefe do Estado-Maior da FS e conterá a assinatura, em anuência, do Comandante da Força.</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>MD-41-M-03</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Pág 30</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Deverá constar no corpo dos Planos de Mobilização o custo estimado total das carências.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>O custo estimado total das carências não deve figurar no corpo do Plano de Mobilização, devendo ser mantido em documento financeiro apartado.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Conforme o **item 3.3.9.7**, deverá constar no corpo dos P Mob o custo estimado total das carências.</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MD-41-M-03</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Pág 30</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>O principal anexo ao Plano de Mobilização Militar será a Lista de Carências.</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>O principal anexo ao Plano de Mobilização Militar é a lista de promoções de oficiais-generais, sendo a Lista de Carências um documento secundário.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Segundo o **item 3.3.11**, o principal anexo ao P Mob Mil será a Lista de Carências.</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
